--- a/autosave.xlsx
+++ b/autosave.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,15 +494,15 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45359</v>
+        <v>45357</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04:50:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.09459</v>
+        <v>1.089045</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>H1</t>
+          <t>H4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,263 +525,15 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45359</v>
+        <v>45358</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.09442</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16:00:00</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.095655</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>21:55:00</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.093695</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>05:05:00</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.093995</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>06:50:00</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.09401</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12:55:00</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.09324</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13:45:00</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.092465</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>18:35:00</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.091955</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>G&amp;s</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>18:50:00</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.092405</v>
+        <v>1.09119</v>
       </c>
     </row>
   </sheetData>

--- a/autosave.xlsx
+++ b/autosave.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,41 @@
           <t>PRICE</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UPPER_SHADOW</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LOWER_SHADOW</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BODY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,7 +520,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,15 +529,36 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.089045</v>
+        <v>8585</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.08723</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.09194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.08692</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.09155</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0003899999999998904</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003099999999998104</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.004320000000000102</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +572,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,15 +581,296 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.09408</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0948</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0951</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.09318</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.09336</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.000180000000000069</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001439999999999886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>G&amp;s</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.095055</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.09609</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.09613</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.09373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.09402</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.000000000004e-05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0002899999999999014</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.002070000000000016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G&amp;s</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1.09119</v>
+      <c r="G5" t="n">
+        <v>1.093605</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.09427</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.09432</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.09293</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.09294</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.999999999988347e-05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.000000000006551e-05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.001330000000000053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>G&amp;s</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.092075</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.09297</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.09312</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.09088</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.09118</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0001500000000000945</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001789999999999958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>G&amp;s</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.089035</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.08827</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.08995</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.08825</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0898</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0001499999999998725</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.000000000013102e-05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001530000000000031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>G&amp;s</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.088945</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.08645</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.09175</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.08639</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.09144</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0003100000000000325</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.999999999994898e-05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00499000000000005</v>
       </c>
     </row>
   </sheetData>
